--- a/HSCEI.xlsx
+++ b/HSCEI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="1904">
   <si>
     <t>ticker</t>
   </si>
@@ -5693,6 +5693,39 @@
   </si>
   <si>
     <t>2016-07-21</t>
+  </si>
+  <si>
+    <t>2016-07-22</t>
+  </si>
+  <si>
+    <t>2016-07-25</t>
+  </si>
+  <si>
+    <t>2016-07-26</t>
+  </si>
+  <si>
+    <t>2016-07-27</t>
+  </si>
+  <si>
+    <t>2016-07-28</t>
+  </si>
+  <si>
+    <t>2016-07-29</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-08-03</t>
+  </si>
+  <si>
+    <t>2016-08-04</t>
+  </si>
+  <si>
+    <t>2016-08-05</t>
+  </si>
+  <si>
+    <t>2016-08-08</t>
   </si>
 </sst>
 </file>
@@ -6050,7 +6083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1887"/>
+  <dimension ref="A1:G1898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36764,6 +36797,259 @@
         <v>9057.08</v>
       </c>
     </row>
+    <row r="1888" spans="1:7">
+      <c r="A1888" s="1">
+        <v>1886</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D1888">
+        <v>9008.71</v>
+      </c>
+      <c r="E1888">
+        <v>8985.48</v>
+      </c>
+      <c r="F1888">
+        <v>9047.42</v>
+      </c>
+      <c r="G1888">
+        <v>9031.93</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:7">
+      <c r="A1889" s="1">
+        <v>1887</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D1889">
+        <v>9079.04</v>
+      </c>
+      <c r="E1889">
+        <v>8955.19</v>
+      </c>
+      <c r="F1889">
+        <v>9079.04</v>
+      </c>
+      <c r="G1889">
+        <v>9034.76</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:7">
+      <c r="A1890" s="1">
+        <v>1888</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D1890">
+        <v>8976.16</v>
+      </c>
+      <c r="E1890">
+        <v>8976.16</v>
+      </c>
+      <c r="F1890">
+        <v>9160.29</v>
+      </c>
+      <c r="G1890">
+        <v>9062.25</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:7">
+      <c r="A1891" s="1">
+        <v>1889</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1891">
+        <v>9107.89</v>
+      </c>
+      <c r="E1891">
+        <v>8986.27</v>
+      </c>
+      <c r="F1891">
+        <v>9149.08</v>
+      </c>
+      <c r="G1891">
+        <v>9115.29</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:7">
+      <c r="A1892" s="1">
+        <v>1890</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D1892">
+        <v>9078.87</v>
+      </c>
+      <c r="E1892">
+        <v>9022.88</v>
+      </c>
+      <c r="F1892">
+        <v>9099.49</v>
+      </c>
+      <c r="G1892">
+        <v>9082.85</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:7">
+      <c r="A1893" s="1">
+        <v>1891</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1893">
+        <v>9032.26</v>
+      </c>
+      <c r="E1893">
+        <v>8934.02</v>
+      </c>
+      <c r="F1893">
+        <v>9085.17</v>
+      </c>
+      <c r="G1893">
+        <v>8958.97</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:7">
+      <c r="A1894" s="1">
+        <v>1892</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D1894">
+        <v>9036.92</v>
+      </c>
+      <c r="E1894">
+        <v>9036.92</v>
+      </c>
+      <c r="F1894">
+        <v>9176.37</v>
+      </c>
+      <c r="G1894">
+        <v>9129.2</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:7">
+      <c r="A1895" s="1">
+        <v>1893</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D1895">
+        <v>8980.8</v>
+      </c>
+      <c r="E1895">
+        <v>8971.47</v>
+      </c>
+      <c r="F1895">
+        <v>9032.49</v>
+      </c>
+      <c r="G1895">
+        <v>8978.33</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:7">
+      <c r="A1896" s="1">
+        <v>1894</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D1896">
+        <v>9046.34</v>
+      </c>
+      <c r="E1896">
+        <v>8987.77</v>
+      </c>
+      <c r="F1896">
+        <v>9054.79</v>
+      </c>
+      <c r="G1896">
+        <v>9004.62</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:7">
+      <c r="A1897" s="1">
+        <v>1895</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D1897">
+        <v>9061.6</v>
+      </c>
+      <c r="E1897">
+        <v>9061.6</v>
+      </c>
+      <c r="F1897">
+        <v>9163.26</v>
+      </c>
+      <c r="G1897">
+        <v>9131.52</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:7">
+      <c r="A1898" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D1898">
+        <v>9202.97</v>
+      </c>
+      <c r="E1898">
+        <v>9173.18</v>
+      </c>
+      <c r="F1898">
+        <v>9282.85</v>
+      </c>
+      <c r="G1898">
+        <v>9276.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HSCEI.xlsx
+++ b/HSCEI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="1904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="1907">
   <si>
     <t>ticker</t>
   </si>
@@ -5726,6 +5726,15 @@
   </si>
   <si>
     <t>2016-08-08</t>
+  </si>
+  <si>
+    <t>2016-08-09</t>
+  </si>
+  <si>
+    <t>2016-08-10</t>
+  </si>
+  <si>
+    <t>2016-08-11</t>
   </si>
 </sst>
 </file>
@@ -6083,7 +6092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1898"/>
+  <dimension ref="A1:G1901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37050,6 +37059,75 @@
         <v>9276.56</v>
       </c>
     </row>
+    <row r="1899" spans="1:7">
+      <c r="A1899" s="1">
+        <v>1897</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D1899">
+        <v>9272.85</v>
+      </c>
+      <c r="E1899">
+        <v>9248.67</v>
+      </c>
+      <c r="F1899">
+        <v>9308.38</v>
+      </c>
+      <c r="G1899">
+        <v>9301.17</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:7">
+      <c r="A1900" s="1">
+        <v>1898</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D1900">
+        <v>9326.02</v>
+      </c>
+      <c r="E1900">
+        <v>9278.71</v>
+      </c>
+      <c r="F1900">
+        <v>9366.32</v>
+      </c>
+      <c r="G1900">
+        <v>9315.5</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:7">
+      <c r="A1901" s="1">
+        <v>1899</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D1901">
+        <v>9311.17</v>
+      </c>
+      <c r="E1901">
+        <v>9286.93</v>
+      </c>
+      <c r="F1901">
+        <v>9479.66</v>
+      </c>
+      <c r="G1901">
+        <v>9423.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HSCEI.xlsx
+++ b/HSCEI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="1908">
   <si>
     <t>ticker</t>
   </si>
@@ -5735,6 +5735,9 @@
   </si>
   <si>
     <t>2016-08-11</t>
+  </si>
+  <si>
+    <t>2016-08-12</t>
   </si>
 </sst>
 </file>
@@ -6092,7 +6095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1901"/>
+  <dimension ref="A1:G1902"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37128,6 +37131,29 @@
         <v>9423.34</v>
       </c>
     </row>
+    <row r="1902" spans="1:7">
+      <c r="A1902" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D1902">
+        <v>9520.86</v>
+      </c>
+      <c r="E1902">
+        <v>9495.27</v>
+      </c>
+      <c r="F1902">
+        <v>9577.3</v>
+      </c>
+      <c r="G1902">
+        <v>9554.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
